--- a/dados/tabela/tabela_casa-rodada_27.xlsx
+++ b/dados/tabela/tabela_casa-rodada_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,10 +641,20 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>xG_5sofrido_casa</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>xG_5sofrido_fora</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>pontos_casa</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Rk_casa</t>
         </is>
@@ -663,10 +673,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -675,125 +685,131 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L2" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="M2" t="n">
-        <v>34.7</v>
+        <v>35.2</v>
       </c>
       <c r="N2" t="n">
-        <v>30.6</v>
+        <v>33.5</v>
       </c>
       <c r="O2" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>L L L D W</t>
+          <t>L L D W W</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.299999999999997</v>
+        <v>8.799999999999997</v>
       </c>
       <c r="S2" t="n">
-        <v>-14.6</v>
+        <v>-16.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.615384615384615</v>
+        <v>1.62962962962963</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="W2" t="n">
         <v>1.761538461538462</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9076923076923076</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.66923076923077</v>
+        <v>2.64010989010989</v>
       </c>
       <c r="Z2" t="n">
         <v>2.153846153846154</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.076923076923077</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.230769230769231</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="AC2" t="n">
         <v>0.4615384615384616</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.230769230769231</v>
+        <v>1.247252747252747</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.65</v>
+        <v>0.9615384615384615</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.66923076923077</v>
+        <v>2.64010989010989</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS2" t="n">
         <v>34</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AT2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -801,137 +817,143 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>9</v>
       </c>
       <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
         <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>31</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="N3" t="n">
         <v>35.2</v>
       </c>
-      <c r="N3" t="n">
-        <v>33.1</v>
-      </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>W L W L L</t>
+          <t>L W L L D</t>
         </is>
       </c>
       <c r="R3" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="S3" t="n">
         <v>-1.200000000000003</v>
       </c>
-      <c r="S3" t="n">
-        <v>-2.100000000000001</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.307692307692308</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="U3" t="n">
-        <v>1.192307692307692</v>
+        <v>1.259259259259259</v>
       </c>
       <c r="V3" t="n">
-        <v>1.192307692307692</v>
+        <v>1.259259259259259</v>
       </c>
       <c r="W3" t="n">
-        <v>1.328571428571429</v>
+        <v>1.353333333333333</v>
       </c>
       <c r="X3" t="n">
         <v>1.383333333333334</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.711904761904762</v>
+        <v>2.736666666666667</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.428571428571429</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AA3" t="n">
         <v>1.166666666666667</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.595238095238095</v>
+        <v>2.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AD3" t="n">
         <v>1.916666666666667</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.488095238095238</v>
+        <v>2.65</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.166666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7333333333333334</v>
+        <v>1.1</v>
       </c>
       <c r="AI3" t="n">
         <v>1.05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.711904761904762</v>
+        <v>2.736666666666667</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="AN3" t="n">
         <v>1.666666666666667</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="AO3" t="n">
         <v>3.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.166666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="AQ3" t="n">
-        <v>33</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AR3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,7 +961,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -948,128 +970,134 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
-        <v>34.3</v>
+        <v>35.9</v>
       </c>
       <c r="N4" t="n">
-        <v>37.4</v>
+        <v>38.3</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.2</v>
+        <v>-2.4</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>L D W D L</t>
+          <t>D W D L L</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.700000000000003</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.399999999999999</v>
+        <v>-1.299999999999997</v>
       </c>
       <c r="T4" t="n">
-        <v>1.615384615384615</v>
+        <v>1.592592592592593</v>
       </c>
       <c r="U4" t="n">
-        <v>1.346153846153846</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="V4" t="n">
-        <v>1.346153846153846</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="W4" t="n">
-        <v>1.507692307692307</v>
+        <v>1.514285714285714</v>
       </c>
       <c r="X4" t="n">
         <v>1.130769230769231</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.638461538461538</v>
+        <v>2.645054945054945</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="AA4" t="n">
         <v>1.230769230769231</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.230769230769231</v>
+        <v>3.15934065934066</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AD4" t="n">
         <v>1.923076923076923</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.692307692307693</v>
+        <v>2.78021978021978</v>
       </c>
       <c r="AF4" t="n">
         <v>1.05</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>1.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.638461538461538</v>
+        <v>2.645054945054945</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
         <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="n">
         <v>2</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS4" t="n">
         <v>32</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AT4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,10 +1105,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
@@ -1089,102 +1117,102 @@
         <v>7</v>
       </c>
       <c r="H5" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M5" t="n">
         <v>38</v>
       </c>
-      <c r="I5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M5" t="n">
-        <v>37.1</v>
-      </c>
       <c r="N5" t="n">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="P5" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>D W W L D</t>
+          <t>W W L D W</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8999999999999986</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.461538461538461</v>
+        <v>1.481481481481481</v>
       </c>
       <c r="U5" t="n">
-        <v>1.153846153846154</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="V5" t="n">
-        <v>1.153846153846154</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="W5" t="n">
         <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.058333333333333</v>
+        <v>1.046153846153846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.808333333333334</v>
+        <v>2.796153846153846</v>
       </c>
       <c r="Z5" t="n">
         <v>1.785714285714286</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.083333333333333</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.869047619047619</v>
+        <v>2.93956043956044</v>
       </c>
       <c r="AC5" t="n">
         <v>1.071428571428571</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.25</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.321428571428571</v>
+        <v>2.302197802197802</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5</v>
+        <v>1.207692307692308</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.533333333333333</v>
+        <v>1.3</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.6</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.808333333333334</v>
+        <v>2.796153846153846</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.833333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="AN5" t="n">
         <v>1</v>
@@ -1196,18 +1224,24 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AS5" t="n">
         <v>29</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AT5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1215,7 +1249,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -1224,128 +1258,134 @@
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>31</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="N6" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="O6" t="n">
         <v>9.1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>L L W W D</t>
+          <t>L W W D L</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>-5.299999999999997</v>
+        <v>-5.700000000000003</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1000000000000014</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>1.192307692307692</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="U6" t="n">
-        <v>1.038461538461539</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="V6" t="n">
-        <v>1.038461538461539</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="W6" t="n">
         <v>1.621428571428572</v>
       </c>
       <c r="X6" t="n">
-        <v>1.141666666666667</v>
+        <v>1.092307692307692</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.763095238095238</v>
+        <v>2.713736263736264</v>
       </c>
       <c r="Z6" t="n">
         <v>1.642857142857143</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.309523809523809</v>
+        <v>2.258241758241758</v>
       </c>
       <c r="AC6" t="n">
         <v>0.9285714285714286</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.166666666666667</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.095238095238095</v>
+        <v>2.15934065934066</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.95</v>
+        <v>1.207692307692308</v>
       </c>
       <c r="AH6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.713736263736264</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AM6" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="AI6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.763095238095238</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.166666666666667</v>
-      </c>
       <c r="AN6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AO6" t="n">
-        <v>1</v>
-      </c>
       <c r="AP6" t="n">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="AQ6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="AS6" t="n">
         <v>29</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AT6" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1353,7 +1393,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -1362,48 +1402,48 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
         <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>42</v>
       </c>
       <c r="L7" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="M7" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="N7" t="n">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="O7" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>L W W D W</t>
+          <t>W W D W L</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>-6.799999999999997</v>
+        <v>-7.5</v>
       </c>
       <c r="S7" t="n">
-        <v>-3.399999999999999</v>
+        <v>-4.300000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>1.269230769230769</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
@@ -1415,43 +1455,43 @@
         <v>1.835714285714286</v>
       </c>
       <c r="X7" t="n">
-        <v>1.191666666666667</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.027380952380952</v>
+        <v>2.98956043956044</v>
       </c>
       <c r="Z7" t="n">
         <v>1.642857142857143</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.476190476190476</v>
+        <v>2.412087912087912</v>
       </c>
       <c r="AC7" t="n">
         <v>0.9285714285714286</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.083333333333333</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.011904761904762</v>
+        <v>2.005494505494505</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.1</v>
+        <v>1.338461538461539</v>
       </c>
       <c r="AH7" t="n">
         <v>2.233333333333333</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.027380952380952</v>
+        <v>2.98956043956044</v>
       </c>
       <c r="AK7" t="n">
         <v>2</v>
@@ -1472,9 +1512,15 @@
         <v>2.333333333333333</v>
       </c>
       <c r="AQ7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS7" t="n">
         <v>28</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1491,10 +1537,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -1503,125 +1549,131 @@
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="M8" t="n">
-        <v>37.7</v>
+        <v>40.1</v>
       </c>
       <c r="N8" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="O8" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>D W W W D</t>
+          <t>W W W D W</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>-1.700000000000003</v>
+        <v>-1.100000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>-6.399999999999999</v>
+        <v>-7.199999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>1.384615384615385</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8846153846153845</v>
+        <v>0.8888888888888887</v>
       </c>
       <c r="W8" t="n">
         <v>1.792307692307692</v>
       </c>
       <c r="X8" t="n">
-        <v>1.115384615384615</v>
+        <v>1.207142857142857</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.907692307692308</v>
+        <v>2.999450549450549</v>
       </c>
       <c r="Z8" t="n">
         <v>1.615384615384615</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.153846153846154</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.769230769230769</v>
+        <v>2.901098901098901</v>
       </c>
       <c r="AC8" t="n">
         <v>0.6153846153846154</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.153846153846154</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.769230769230769</v>
+        <v>1.758241758241758</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.4</v>
+        <v>1.023076923076923</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.366666666666666</v>
+        <v>1.292857142857143</v>
       </c>
       <c r="AH8" t="n">
         <v>2.1</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.907692307692308</v>
+        <v>2.999450549450549</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
         <v>0.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.8333333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AQ8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.566666666666667</v>
+      </c>
+      <c r="AS8" t="n">
         <v>28</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1629,7 +1681,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -1638,128 +1690,134 @@
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
         <v>44</v>
       </c>
       <c r="L9" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="M9" t="n">
-        <v>37.9</v>
+        <v>38.7</v>
       </c>
       <c r="N9" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="O9" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="P9" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>D W L L L</t>
+          <t>W L L L L</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.100000000000001</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="S9" t="n">
-        <v>-5.399999999999999</v>
+        <v>-4.300000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>1.538461538461539</v>
+        <v>1.481481481481481</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="W9" t="n">
-        <v>1.883333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
         <v>1.107142857142857</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.990476190476191</v>
+        <v>2.907142857142857</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.666666666666667</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="AA9" t="n">
         <v>1.428571428571429</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.095238095238095</v>
+        <v>2.967032967032967</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="AD9" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.69047619047619</v>
+        <v>1.78021978021978</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.7538461538461537</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.366666666666666</v>
+        <v>1.328571428571428</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.066666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.990476190476191</v>
+        <v>2.907142857142857</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AM9" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AN9" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="AQ9" t="n">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS9" t="n">
         <v>26</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AT9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1767,10 +1825,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
@@ -1779,93 +1837,93 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" t="n">
         <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L10" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M10" t="n">
-        <v>35.2</v>
+        <v>37.1</v>
       </c>
       <c r="N10" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>W L D W D</t>
+          <t>L D W D W</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.799999999999997</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.5</v>
+        <v>-3.799999999999997</v>
       </c>
       <c r="T10" t="n">
-        <v>1.461538461538461</v>
+        <v>1.481481481481481</v>
       </c>
       <c r="U10" t="n">
-        <v>1.192307692307692</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="V10" t="n">
-        <v>1.192307692307692</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="W10" t="n">
         <v>1.616666666666666</v>
       </c>
       <c r="X10" t="n">
-        <v>1.128571428571429</v>
+        <v>1.18</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.745238095238095</v>
+        <v>2.796666666666666</v>
       </c>
       <c r="Z10" t="n">
         <v>1.416666666666667</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.5</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.916666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="AC10" t="n">
         <v>0.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.571428571428571</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.321428571428571</v>
+        <v>2.216666666666667</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.4</v>
+        <v>1.183333333333334</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7333333333333334</v>
+        <v>1.373333333333334</v>
       </c>
       <c r="AH10" t="n">
         <v>0.95</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7333333333333334</v>
+        <v>1.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.745238095238095</v>
+        <v>2.796666666666666</v>
       </c>
       <c r="AK10" t="n">
         <v>0.5</v>
@@ -1880,162 +1938,174 @@
         <v>1.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="AQ10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AS10" t="n">
         <v>22</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AT10" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" t="n">
-        <v>14</v>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
         <v>-2</v>
       </c>
       <c r="K11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="n">
         <v>1.19</v>
       </c>
       <c r="M11" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="N11" t="n">
-        <v>34.6</v>
+        <v>36.3</v>
       </c>
       <c r="O11" t="n">
-        <v>-8.4</v>
+        <v>-8.1</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>L D W L D</t>
+          <t>D W L D D</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.800000000000001</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.600000000000001</v>
+        <v>-1.299999999999997</v>
       </c>
       <c r="T11" t="n">
-        <v>1.153846153846154</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="U11" t="n">
-        <v>1.230769230769231</v>
+        <v>1.296296296296296</v>
       </c>
       <c r="V11" t="n">
-        <v>1.230769230769231</v>
+        <v>1.296296296296296</v>
       </c>
       <c r="W11" t="n">
         <v>1.284615384615385</v>
       </c>
       <c r="X11" t="n">
-        <v>0.723076923076923</v>
+        <v>0.8142857142857142</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.007692307692308</v>
+        <v>2.098901098901099</v>
       </c>
       <c r="Z11" t="n">
         <v>1.538461538461539</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.307692307692308</v>
+        <v>2.467032967032967</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.461538461538461</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.461538461538462</v>
+        <v>2.571428571428571</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.45</v>
+        <v>1.685714285714285</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.9666666666666668</v>
+        <v>1.05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.3</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.007692307692308</v>
+        <v>2.098901098901099</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="AQ11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS11" t="n">
         <v>22</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AT11" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2043,10 +2113,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
@@ -2055,116 +2125,122 @@
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
         <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="M12" t="n">
-        <v>31.4</v>
+        <v>32.4</v>
       </c>
       <c r="N12" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="O12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
         <v>0.19</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>D W W W L</t>
+          <t>W W W L W</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>-1.399999999999999</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="S12" t="n">
-        <v>-5.600000000000001</v>
+        <v>-6.399999999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>1.153846153846154</v>
+        <v>1.185185185185185</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="W12" t="n">
         <v>1.292307692307692</v>
       </c>
       <c r="X12" t="n">
-        <v>1.115384615384615</v>
+        <v>1.107142857142857</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.407692307692308</v>
+        <v>2.399450549450549</v>
       </c>
       <c r="Z12" t="n">
         <v>1.230769230769231</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.076923076923077</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.307692307692307</v>
+        <v>2.373626373626374</v>
       </c>
       <c r="AC12" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.615384615384615</v>
+        <v>1.565934065934066</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9076923076923076</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.4</v>
+        <v>1.114285714285715</v>
       </c>
       <c r="AH12" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.407692307692308</v>
+        <v>2.399450549450549</v>
       </c>
       <c r="AK12" t="n">
         <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ12" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS12" t="n">
         <v>21</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AT12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2181,7 +2257,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -2190,96 +2266,96 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
         <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="K13" t="n">
         <v>32</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="N13" t="n">
-        <v>32.8</v>
+        <v>34.7</v>
       </c>
       <c r="O13" t="n">
-        <v>-5.6</v>
+        <v>-6.9</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>D W L L W</t>
+          <t>W L L W L</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>-4.199999999999999</v>
+        <v>-4.800000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.799999999999997</v>
+        <v>-2.700000000000003</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="U13" t="n">
-        <v>1.192307692307692</v>
+        <v>1.185185185185185</v>
       </c>
       <c r="V13" t="n">
-        <v>1.192307692307692</v>
+        <v>1.185185185185185</v>
       </c>
       <c r="W13" t="n">
         <v>1.215384615384616</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8692307692307693</v>
+        <v>0.85</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.084615384615385</v>
+        <v>2.065384615384616</v>
       </c>
       <c r="Z13" t="n">
         <v>1.153846153846154</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.769230769230769</v>
+        <v>1.725274725274725</v>
       </c>
       <c r="AC13" t="n">
         <v>1.076923076923077</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.307692307692308</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.384615384615385</v>
+        <v>2.362637362637363</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.066666666666667</v>
+        <v>1.123076923076923</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9</v>
+        <v>1.435714285714285</v>
       </c>
       <c r="AH13" t="n">
         <v>1.433333333333333</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.084615384615385</v>
+        <v>2.065384615384616</v>
       </c>
       <c r="AK13" t="n">
         <v>1.666666666666667</v>
@@ -2294,32 +2370,38 @@
         <v>1.666666666666667</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="AQ13" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS13" t="n">
         <v>21</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AT13" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -2328,119 +2410,125 @@
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="K14" t="n">
         <v>30</v>
       </c>
       <c r="L14" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="M14" t="n">
-        <v>29.7</v>
+        <v>35.9</v>
       </c>
       <c r="N14" t="n">
-        <v>36.4</v>
+        <v>33.6</v>
       </c>
       <c r="O14" t="n">
-        <v>-6.8</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.26</v>
+        <v>0.09</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>L L W W W</t>
+          <t>W W L D W</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>-0.6999999999999993</v>
+        <v>-7.899999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>5.600000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>1.115384615384615</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="U14" t="n">
-        <v>1.615384615384615</v>
+        <v>1.407407407407407</v>
       </c>
       <c r="V14" t="n">
-        <v>1.615384615384615</v>
+        <v>1.407407407407407</v>
       </c>
       <c r="W14" t="n">
-        <v>1.384615384615385</v>
+        <v>1.657142857142857</v>
       </c>
       <c r="X14" t="n">
-        <v>0.8923076923076922</v>
+        <v>0.976923076923077</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.276923076923077</v>
+        <v>2.634065934065934</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.692307692307692</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.230769230769231</v>
+        <v>2.065934065934066</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.461538461538461</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AD14" t="n">
         <v>1.769230769230769</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.230769230769231</v>
+        <v>2.84065934065934</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.15</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.533333333333333</v>
+        <v>1.592307692307692</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2.276923076923077</v>
+        <v>2.634065934065934</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="AQ14" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS14" t="n">
         <v>20</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AT14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2453,14 +2541,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
@@ -2469,539 +2557,563 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="K15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L15" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="n">
-        <v>33.9</v>
+        <v>31.5</v>
       </c>
       <c r="N15" t="n">
-        <v>32.8</v>
+        <v>38.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.1</v>
+        <v>-7.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04</v>
+        <v>-0.27</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>W W W L D</t>
+          <t>L W W W L</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>-6.899999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>5.200000000000003</v>
+        <v>6.200000000000003</v>
       </c>
       <c r="T15" t="n">
-        <v>1.038461538461539</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="U15" t="n">
-        <v>1.461538461538461</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V15" t="n">
-        <v>1.461538461538461</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W15" t="n">
-        <v>1.630769230769231</v>
+        <v>1.414285714285714</v>
       </c>
       <c r="X15" t="n">
-        <v>0.976923076923077</v>
+        <v>0.8923076923076922</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.607692307692308</v>
+        <v>2.306593406593406</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.153846153846154</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.076923076923077</v>
+        <v>2.181318681318681</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.153846153846154</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="AD15" t="n">
         <v>1.769230769230769</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.923076923076923</v>
+        <v>3.34065934065934</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.266666666666667</v>
+        <v>1.15</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.05</v>
+        <v>1.746153846153846</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.933333333333334</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="AI15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2.306593406593406</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="AO15" t="n">
         <v>1</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>2.607692307692308</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AP15" t="n">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>1.566666666666666</v>
       </c>
       <c r="AR15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT15" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="K16" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="M16" t="n">
-        <v>26.5</v>
+        <v>35.5</v>
       </c>
       <c r="N16" t="n">
-        <v>28.2</v>
+        <v>39</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.7</v>
+        <v>-3.5</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.06</v>
+        <v>-0.13</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>L D L W D</t>
+          <t>W L L W W</t>
         </is>
       </c>
       <c r="R16" t="n">
         <v>-0.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.800000000000001</v>
+        <v>-1</v>
       </c>
       <c r="T16" t="n">
+        <v>1.296296296296296</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.407407407407407</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.407407407407408</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.53076923076923</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.63076923076923</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.615384615384615</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.8384615384615384</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2.038461538461538</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.6923076923076923</v>
-      </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="AC16" t="n">
         <v>1.153846153846154</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.153846153846154</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.307692307692307</v>
+        <v>2.796703296703297</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.3666666666666667</v>
+        <v>1.176923076923077</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.6499999999999999</v>
+        <v>1.692857142857143</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.266666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.038461538461538</v>
+        <v>2.63076923076923</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.666666666666667</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17</v>
+        <v>1.6</v>
       </c>
       <c r="AR16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT16" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="K17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M17" t="n">
-        <v>33.6</v>
+        <v>26.4</v>
       </c>
       <c r="N17" t="n">
-        <v>38.5</v>
+        <v>31.6</v>
       </c>
       <c r="O17" t="n">
-        <v>-4.8</v>
+        <v>-5.2</v>
       </c>
       <c r="P17" t="n">
         <v>-0.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>D W L L W</t>
+          <t>L D D L W</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.5</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.37037037037037</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.37037037037037</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.185714285714286</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.7461538461538463</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.931868131868132</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.983516483516484</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1.307692307692308</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.461538461538461</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.461538461538462</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AE17" t="n">
+        <v>2.736263736263736</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH17" t="n">
         <v>1.1</v>
       </c>
-      <c r="Y17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AI17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.931868131868132</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO17" t="n">
         <v>1</v>
       </c>
-      <c r="AB17" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1.642857142857143</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2.892857142857143</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AP17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1</v>
       </c>
-      <c r="AL17" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>4.333333333333334</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>16</v>
-      </c>
       <c r="AR17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT17" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
         <v>6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
       </c>
       <c r="G18" t="n">
         <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="K18" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L18" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>25.9</v>
+        <v>26.9</v>
       </c>
       <c r="N18" t="n">
-        <v>31.1</v>
+        <v>29.4</v>
       </c>
       <c r="O18" t="n">
-        <v>-5.2</v>
+        <v>-2.5</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.2</v>
+        <v>-0.09</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>D L D D L</t>
+          <t>D L W D W</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>-0.8999999999999986</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>5.899999999999999</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9615384615384616</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="U18" t="n">
-        <v>1.423076923076923</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="V18" t="n">
-        <v>1.423076923076923</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="W18" t="n">
-        <v>1.238461538461539</v>
+        <v>1.2</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7461538461538463</v>
+        <v>0.8071428571428571</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.984615384615385</v>
+        <v>2.007142857142857</v>
       </c>
       <c r="Z18" t="n">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.164835164835165</v>
+      </c>
+      <c r="AC18" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.923076923076923</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.538461538461539</v>
-      </c>
       <c r="AD18" t="n">
-        <v>1.307692307692308</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.846153846153846</v>
+        <v>2.225274725274725</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.066666666666667</v>
+        <v>0.976923076923077</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.95</v>
+        <v>1.192857142857143</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.233333333333333</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.984615384615385</v>
+        <v>2.007142857142857</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AL18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AO18" t="n">
         <v>0.5</v>
       </c>
-      <c r="AM18" t="n">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1</v>
-      </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="AR18" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT18" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3009,7 +3121,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -3018,96 +3130,96 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>31</v>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="M19" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="N19" t="n">
-        <v>31.2</v>
+        <v>33.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.1</v>
+        <v>-0.4</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>D W L D D</t>
+          <t>W L D D L</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>-8.399999999999999</v>
+        <v>-8.700000000000003</v>
       </c>
       <c r="S19" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.100000000000001</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="W19" t="n">
-        <v>1.261538461538462</v>
+        <v>1.192857142857143</v>
       </c>
       <c r="X19" t="n">
         <v>1.230769230769231</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.492307692307692</v>
+        <v>2.423626373626374</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA19" t="n">
         <v>1.384615384615385</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.846153846153846</v>
+        <v>1.813186813186813</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.692307692307692</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.1</v>
+        <v>1.014285714285714</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.446153846153846</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AI19" t="n">
         <v>0.8666666666666666</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.492307692307692</v>
+        <v>2.423626373626374</v>
       </c>
       <c r="AK19" t="n">
         <v>0.5</v>
@@ -3119,18 +3231,24 @@
         <v>1.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO19" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8333333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="AQ19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AS19" t="n">
         <v>14</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AT19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3147,7 +3265,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -3156,63 +3274,63 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="K20" t="n">
         <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="M20" t="n">
-        <v>32.7</v>
+        <v>35.6</v>
       </c>
       <c r="N20" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="O20" t="n">
-        <v>-7.4</v>
+        <v>-5</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.29</v>
+        <v>-0.19</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>D L L D L</t>
+          <t>L L D L L</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>-3.700000000000003</v>
+        <v>-5.600000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.115384615384615</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="U20" t="n">
-        <v>2.076923076923077</v>
+        <v>2.074074074074074</v>
       </c>
       <c r="V20" t="n">
-        <v>2.076923076923077</v>
+        <v>2.074074074074074</v>
       </c>
       <c r="W20" t="n">
-        <v>1.323076923076923</v>
+        <v>1.435714285714285</v>
       </c>
       <c r="X20" t="n">
         <v>1.207692307692308</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.530769230769231</v>
+        <v>2.643406593406593</v>
       </c>
       <c r="Z20" t="n">
         <v>1</v>
@@ -3224,51 +3342,57 @@
         <v>2.230769230769231</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.769230769230769</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="AD20" t="n">
         <v>2.384615384615385</v>
       </c>
       <c r="AE20" t="n">
-        <v>4.153846153846153</v>
+        <v>4.170329670329671</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.4</v>
+        <v>1.235714285714286</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.5</v>
+        <v>1.807692307692308</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="AI20" t="n">
         <v>0.9333333333333332</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.530769230769231</v>
+        <v>2.643406593406593</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL20" t="n">
         <v>1.666666666666667</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>2</v>
       </c>
       <c r="AP20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS20" t="n">
         <v>13</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3285,7 +3409,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -3294,119 +3418,125 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
         <v>29</v>
       </c>
       <c r="I21" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J21" t="n">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="K21" t="n">
         <v>20</v>
       </c>
       <c r="L21" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="M21" t="n">
-        <v>26.9</v>
+        <v>28.1</v>
       </c>
       <c r="N21" t="n">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="O21" t="n">
-        <v>-17</v>
+        <v>-16.2</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.65</v>
+        <v>-0.6</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>L L L W W</t>
+          <t>L L W W L</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.100000000000001</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="S21" t="n">
-        <v>10.1</v>
+        <v>12.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.115384615384615</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="U21" t="n">
-        <v>2.076923076923077</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="V21" t="n">
-        <v>2.076923076923077</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="W21" t="n">
-        <v>1.325</v>
+        <v>1.315384615384616</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.110714285714286</v>
+        <v>2.101098901098901</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.166666666666667</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="AA21" t="n">
         <v>1.071428571428571</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.238095238095238</v>
+        <v>2.148351648351648</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.416666666666667</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="AD21" t="n">
         <v>2.642857142857143</v>
       </c>
       <c r="AE21" t="n">
-        <v>4.059523809523809</v>
+        <v>4.181318681318682</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.35</v>
+        <v>1.369230769230769</v>
       </c>
       <c r="AG21" t="n">
         <v>1.9</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.110714285714286</v>
+        <v>2.101098901098901</v>
       </c>
       <c r="AK21" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.666666666666666</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="AQ21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS21" t="n">
         <v>12</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AT21" t="n">
         <v>20</v>
       </c>
     </row>
